--- a/biology/Médecine/Association_des_médecins_et_chirurgiens_américains/Association_des_médecins_et_chirurgiens_américains.xlsx
+++ b/biology/Médecine/Association_des_médecins_et_chirurgiens_américains/Association_des_médecins_et_chirurgiens_américains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_des_m%C3%A9decins_et_chirurgiens_am%C3%A9ricains</t>
+          <t>Association_des_médecins_et_chirurgiens_américains</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association des médecins et chirurgiens américains est une association professionnelle américaine pro-vie et ultra-conservatrice fondée en 1943.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_des_m%C3%A9decins_et_chirurgiens_am%C3%A9ricains</t>
+          <t>Association_des_médecins_et_chirurgiens_américains</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa devise est "omnia pro aegroto" (tout pour le patient).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_des_m%C3%A9decins_et_chirurgiens_am%C3%A9ricains</t>
+          <t>Association_des_médecins_et_chirurgiens_américains</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Membres notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ron Paul
 Rand Paul
